--- a/proteinparam.xlsx
+++ b/proteinparam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/summerjohnson/Documents/GitHub/UTMB-SIBDS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61A68357-8773-5644-A546-E20B2B9391E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9013F70-615F-C84E-80A5-A990BA9F5072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13040" yWindow="960" windowWidth="14900" windowHeight="16940" xr2:uid="{F9A87D88-B172-CE4D-98AF-54812CBD1795}"/>
+    <workbookView xWindow="700" yWindow="1400" windowWidth="14900" windowHeight="16940" xr2:uid="{F9A87D88-B172-CE4D-98AF-54812CBD1795}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,10 +74,10 @@
     <t>Myostatin</t>
   </si>
   <si>
-    <t>8-OhDG</t>
+    <t>PARP1</t>
   </si>
   <si>
-    <t>PARP1</t>
+    <t>etOhDG</t>
   </si>
 </sst>
 </file>
@@ -472,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34019B78-E6AE-0A4E-B762-229E6BB8B31B}">
   <dimension ref="A1:E253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I249" sqref="I249"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="I207" sqref="I207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3356,7 +3356,7 @@
         <v>1</v>
       </c>
       <c r="B170" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3373,7 +3373,7 @@
         <v>2</v>
       </c>
       <c r="B171" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3390,7 +3390,7 @@
         <v>3</v>
       </c>
       <c r="B172" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3407,7 +3407,7 @@
         <v>4</v>
       </c>
       <c r="B173" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3424,7 +3424,7 @@
         <v>5</v>
       </c>
       <c r="B174" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3441,7 +3441,7 @@
         <v>6</v>
       </c>
       <c r="B175" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3458,7 +3458,7 @@
         <v>7</v>
       </c>
       <c r="B176" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3475,7 +3475,7 @@
         <v>8</v>
       </c>
       <c r="B177" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3492,7 +3492,7 @@
         <v>9</v>
       </c>
       <c r="B178" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3509,7 +3509,7 @@
         <v>10</v>
       </c>
       <c r="B179" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3526,7 +3526,7 @@
         <v>11</v>
       </c>
       <c r="B180" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3543,7 +3543,7 @@
         <v>12</v>
       </c>
       <c r="B181" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3560,7 +3560,7 @@
         <v>13</v>
       </c>
       <c r="B182" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C182" t="s">
         <v>7</v>
@@ -3577,7 +3577,7 @@
         <v>14</v>
       </c>
       <c r="B183" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C183" t="s">
         <v>7</v>
@@ -3594,7 +3594,7 @@
         <v>15</v>
       </c>
       <c r="B184" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C184" t="s">
         <v>7</v>
@@ -3611,7 +3611,7 @@
         <v>16</v>
       </c>
       <c r="B185" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C185" t="s">
         <v>7</v>
@@ -3628,7 +3628,7 @@
         <v>17</v>
       </c>
       <c r="B186" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C186" t="s">
         <v>7</v>
@@ -3645,7 +3645,7 @@
         <v>18</v>
       </c>
       <c r="B187" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C187" t="s">
         <v>7</v>
@@ -3662,7 +3662,7 @@
         <v>19</v>
       </c>
       <c r="B188" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C188" t="s">
         <v>7</v>
@@ -3679,7 +3679,7 @@
         <v>20</v>
       </c>
       <c r="B189" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C189" t="s">
         <v>7</v>
@@ -3696,7 +3696,7 @@
         <v>21</v>
       </c>
       <c r="B190" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C190" t="s">
         <v>7</v>
@@ -3713,7 +3713,7 @@
         <v>22</v>
       </c>
       <c r="B191" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C191" t="s">
         <v>7</v>
@@ -3730,7 +3730,7 @@
         <v>23</v>
       </c>
       <c r="B192" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C192" t="s">
         <v>7</v>
@@ -3747,7 +3747,7 @@
         <v>24</v>
       </c>
       <c r="B193" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C193" t="s">
         <v>7</v>
@@ -3764,7 +3764,7 @@
         <v>25</v>
       </c>
       <c r="B194" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C194" t="s">
         <v>7</v>
@@ -3781,7 +3781,7 @@
         <v>26</v>
       </c>
       <c r="B195" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C195" t="s">
         <v>7</v>
@@ -3798,7 +3798,7 @@
         <v>27</v>
       </c>
       <c r="B196" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C196" t="s">
         <v>7</v>
@@ -3815,7 +3815,7 @@
         <v>28</v>
       </c>
       <c r="B197" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C197" t="s">
         <v>8</v>
@@ -3832,7 +3832,7 @@
         <v>29</v>
       </c>
       <c r="B198" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C198" t="s">
         <v>8</v>
@@ -3849,7 +3849,7 @@
         <v>30</v>
       </c>
       <c r="B199" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C199" t="s">
         <v>8</v>
@@ -3866,7 +3866,7 @@
         <v>31</v>
       </c>
       <c r="B200" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C200" t="s">
         <v>8</v>
@@ -3883,7 +3883,7 @@
         <v>32</v>
       </c>
       <c r="B201" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C201" t="s">
         <v>8</v>
@@ -3900,7 +3900,7 @@
         <v>33</v>
       </c>
       <c r="B202" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C202" t="s">
         <v>8</v>
@@ -3917,7 +3917,7 @@
         <v>34</v>
       </c>
       <c r="B203" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C203" t="s">
         <v>8</v>
@@ -3934,7 +3934,7 @@
         <v>35</v>
       </c>
       <c r="B204" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C204" t="s">
         <v>8</v>
@@ -3951,7 +3951,7 @@
         <v>36</v>
       </c>
       <c r="B205" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C205" t="s">
         <v>8</v>
@@ -3968,7 +3968,7 @@
         <v>37</v>
       </c>
       <c r="B206" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C206" t="s">
         <v>8</v>
@@ -3985,7 +3985,7 @@
         <v>38</v>
       </c>
       <c r="B207" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C207" t="s">
         <v>8</v>
@@ -4002,7 +4002,7 @@
         <v>39</v>
       </c>
       <c r="B208" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C208" t="s">
         <v>8</v>
@@ -4019,7 +4019,7 @@
         <v>40</v>
       </c>
       <c r="B209" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C209" t="s">
         <v>8</v>
@@ -4036,7 +4036,7 @@
         <v>41</v>
       </c>
       <c r="B210" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C210" t="s">
         <v>8</v>
@@ -4053,7 +4053,7 @@
         <v>42</v>
       </c>
       <c r="B211" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C211" t="s">
         <v>8</v>
@@ -4070,7 +4070,7 @@
         <v>1</v>
       </c>
       <c r="B212" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -4087,7 +4087,7 @@
         <v>2</v>
       </c>
       <c r="B213" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -4104,7 +4104,7 @@
         <v>3</v>
       </c>
       <c r="B214" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -4121,7 +4121,7 @@
         <v>4</v>
       </c>
       <c r="B215" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4138,7 +4138,7 @@
         <v>5</v>
       </c>
       <c r="B216" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -4155,7 +4155,7 @@
         <v>6</v>
       </c>
       <c r="B217" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -4172,7 +4172,7 @@
         <v>7</v>
       </c>
       <c r="B218" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -4189,7 +4189,7 @@
         <v>8</v>
       </c>
       <c r="B219" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -4206,7 +4206,7 @@
         <v>9</v>
       </c>
       <c r="B220" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -4223,7 +4223,7 @@
         <v>10</v>
       </c>
       <c r="B221" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -4240,7 +4240,7 @@
         <v>11</v>
       </c>
       <c r="B222" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -4257,7 +4257,7 @@
         <v>12</v>
       </c>
       <c r="B223" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -4274,7 +4274,7 @@
         <v>13</v>
       </c>
       <c r="B224" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C224" t="s">
         <v>7</v>
@@ -4291,7 +4291,7 @@
         <v>14</v>
       </c>
       <c r="B225" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C225" t="s">
         <v>7</v>
@@ -4308,7 +4308,7 @@
         <v>15</v>
       </c>
       <c r="B226" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C226" t="s">
         <v>7</v>
@@ -4325,7 +4325,7 @@
         <v>16</v>
       </c>
       <c r="B227" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C227" t="s">
         <v>7</v>
@@ -4342,7 +4342,7 @@
         <v>17</v>
       </c>
       <c r="B228" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C228" t="s">
         <v>7</v>
@@ -4359,7 +4359,7 @@
         <v>18</v>
       </c>
       <c r="B229" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C229" t="s">
         <v>7</v>
@@ -4376,7 +4376,7 @@
         <v>19</v>
       </c>
       <c r="B230" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C230" t="s">
         <v>7</v>
@@ -4393,7 +4393,7 @@
         <v>20</v>
       </c>
       <c r="B231" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C231" t="s">
         <v>7</v>
@@ -4410,7 +4410,7 @@
         <v>21</v>
       </c>
       <c r="B232" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C232" t="s">
         <v>7</v>
@@ -4427,7 +4427,7 @@
         <v>22</v>
       </c>
       <c r="B233" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C233" t="s">
         <v>7</v>
@@ -4444,7 +4444,7 @@
         <v>23</v>
       </c>
       <c r="B234" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C234" t="s">
         <v>7</v>
@@ -4461,7 +4461,7 @@
         <v>24</v>
       </c>
       <c r="B235" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C235" t="s">
         <v>7</v>
@@ -4478,7 +4478,7 @@
         <v>25</v>
       </c>
       <c r="B236" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C236" t="s">
         <v>7</v>
@@ -4495,7 +4495,7 @@
         <v>26</v>
       </c>
       <c r="B237" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C237" t="s">
         <v>7</v>
@@ -4512,7 +4512,7 @@
         <v>27</v>
       </c>
       <c r="B238" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C238" t="s">
         <v>7</v>
@@ -4529,7 +4529,7 @@
         <v>28</v>
       </c>
       <c r="B239" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C239" t="s">
         <v>8</v>
@@ -4546,7 +4546,7 @@
         <v>29</v>
       </c>
       <c r="B240" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C240" t="s">
         <v>8</v>
@@ -4563,7 +4563,7 @@
         <v>30</v>
       </c>
       <c r="B241" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C241" t="s">
         <v>8</v>
@@ -4580,7 +4580,7 @@
         <v>31</v>
       </c>
       <c r="B242" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C242" t="s">
         <v>8</v>
@@ -4597,7 +4597,7 @@
         <v>32</v>
       </c>
       <c r="B243" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C243" t="s">
         <v>8</v>
@@ -4614,7 +4614,7 @@
         <v>33</v>
       </c>
       <c r="B244" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C244" t="s">
         <v>8</v>
@@ -4631,7 +4631,7 @@
         <v>34</v>
       </c>
       <c r="B245" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C245" t="s">
         <v>8</v>
@@ -4648,7 +4648,7 @@
         <v>35</v>
       </c>
       <c r="B246" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C246" t="s">
         <v>8</v>
@@ -4665,7 +4665,7 @@
         <v>36</v>
       </c>
       <c r="B247" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C247" t="s">
         <v>8</v>
@@ -4682,7 +4682,7 @@
         <v>37</v>
       </c>
       <c r="B248" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C248" t="s">
         <v>8</v>
@@ -4699,7 +4699,7 @@
         <v>38</v>
       </c>
       <c r="B249" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C249" t="s">
         <v>8</v>
@@ -4716,7 +4716,7 @@
         <v>39</v>
       </c>
       <c r="B250" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C250" t="s">
         <v>8</v>
@@ -4733,7 +4733,7 @@
         <v>40</v>
       </c>
       <c r="B251" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C251" t="s">
         <v>8</v>
@@ -4750,7 +4750,7 @@
         <v>41</v>
       </c>
       <c r="B252" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C252" t="s">
         <v>8</v>
@@ -4767,7 +4767,7 @@
         <v>42</v>
       </c>
       <c r="B253" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C253" t="s">
         <v>8</v>
